--- a/opm_hero_property/heroes/44.xlsx
+++ b/opm_hero_property/heroes/44.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11023</v>
       </c>
       <c r="D4" t="n">
-        <v>11023</v>
+        <v>11888</v>
       </c>
       <c r="E4" t="n">
         <v>249</v>
@@ -1304,7 +1305,7 @@
         <v>12183</v>
       </c>
       <c r="D5" t="n">
-        <v>12183</v>
+        <v>14027</v>
       </c>
       <c r="E5" t="n">
         <v>374</v>
@@ -1411,7 +1412,7 @@
         <v>13548</v>
       </c>
       <c r="D6" t="n">
-        <v>13548</v>
+        <v>16544</v>
       </c>
       <c r="E6" t="n">
         <v>512</v>
@@ -1518,7 +1519,7 @@
         <v>15117</v>
       </c>
       <c r="D7" t="n">
-        <v>15117</v>
+        <v>21799</v>
       </c>
       <c r="E7" t="n">
         <v>961</v>
@@ -1625,7 +1626,7 @@
         <v>16891</v>
       </c>
       <c r="D8" t="n">
-        <v>16891</v>
+        <v>29067</v>
       </c>
       <c r="E8" t="n">
         <v>1423</v>
@@ -1732,7 +1733,7 @@
         <v>18938</v>
       </c>
       <c r="D9" t="n">
-        <v>18938</v>
+        <v>38852</v>
       </c>
       <c r="E9" t="n">
         <v>1879</v>
@@ -1839,7 +1840,7 @@
         <v>20030</v>
       </c>
       <c r="D10" t="n">
-        <v>20030</v>
+        <v>47001</v>
       </c>
       <c r="E10" t="n">
         <v>2220</v>
@@ -1946,7 +1947,7 @@
         <v>21326</v>
       </c>
       <c r="D11" t="n">
-        <v>21326</v>
+        <v>57007</v>
       </c>
       <c r="E11" t="n">
         <v>2590</v>
@@ -2053,7 +2054,7 @@
         <v>24056</v>
       </c>
       <c r="D12" t="n">
-        <v>24056</v>
+        <v>74815</v>
       </c>
       <c r="E12" t="n">
         <v>3188</v>
@@ -2160,7 +2161,7 @@
         <v>24601</v>
       </c>
       <c r="D13" t="n">
-        <v>24601</v>
+        <v>77332</v>
       </c>
       <c r="E13" t="n">
         <v>3587</v>
@@ -2267,7 +2268,7 @@
         <v>25147</v>
       </c>
       <c r="D14" t="n">
-        <v>25147</v>
+        <v>79849</v>
       </c>
       <c r="E14" t="n">
         <v>3985</v>
@@ -2374,7 +2375,7 @@
         <v>25693</v>
       </c>
       <c r="D15" t="n">
-        <v>25693</v>
+        <v>82367</v>
       </c>
       <c r="E15" t="n">
         <v>4384</v>
@@ -2481,7 +2482,7 @@
         <v>26239</v>
       </c>
       <c r="D16" t="n">
-        <v>26239</v>
+        <v>84884</v>
       </c>
       <c r="E16" t="n">
         <v>4782</v>
@@ -2588,7 +2589,7 @@
         <v>26785</v>
       </c>
       <c r="D17" t="n">
-        <v>26785</v>
+        <v>87401</v>
       </c>
       <c r="E17" t="n">
         <v>5181</v>
@@ -6534,4 +6535,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>44</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29397.6377016</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5292.547786</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2145.3584</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X2" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>44</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>41566.9851462</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7503.314112999999</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3336.479</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X3" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>75244.107384</v>
+      </c>
+      <c r="U4" t="n">
+        <v>13056.79875</v>
+      </c>
+      <c r="V4" t="n">
+        <v>7284.078</v>
+      </c>
+      <c r="W4" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X4" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1700</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>75244.107384</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13056.79875</v>
+      </c>
+      <c r="V5" t="n">
+        <v>7284.078</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X5" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1770</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>44</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>66951.76346399999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11970.46125</v>
+      </c>
+      <c r="V6" t="n">
+        <v>7284.078</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X6" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>44</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>276598.5904806</v>
+      </c>
+      <c r="U7" t="n">
+        <v>44888.85428</v>
+      </c>
+      <c r="V7" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W7" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2550</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>44</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>238732.5724026</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40334.19788000001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W8" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>1650</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>251354.5784286</v>
+      </c>
+      <c r="U9" t="n">
+        <v>41852.41668</v>
+      </c>
+      <c r="V9" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W9" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>44</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>263976.5844546</v>
+      </c>
+      <c r="U10" t="n">
+        <v>43370.63548</v>
+      </c>
+      <c r="V10" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>44</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>276598.5904806</v>
+      </c>
+      <c r="U11" t="n">
+        <v>44888.85428</v>
+      </c>
+      <c r="V11" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2550</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>276598.5904806</v>
+      </c>
+      <c r="U12" t="n">
+        <v>44888.85428</v>
+      </c>
+      <c r="V12" t="n">
+        <v>32239.0205</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2480</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>44</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>409120.098871</v>
+      </c>
+      <c r="U13" t="n">
+        <v>66857.330099</v>
+      </c>
+      <c r="V13" t="n">
+        <v>54877.5102</v>
+      </c>
+      <c r="W13" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>409120.098871</v>
+      </c>
+      <c r="U14" t="n">
+        <v>66857.330099</v>
+      </c>
+      <c r="V14" t="n">
+        <v>54877.5102</v>
+      </c>
+      <c r="W14" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2690</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>44</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>973168.2035977</v>
+      </c>
+      <c r="U15" t="n">
+        <v>164352.156134</v>
+      </c>
+      <c r="V15" t="n">
+        <v>156579.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2970</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>44</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5152609.5143216</v>
+      </c>
+      <c r="U16" t="n">
+        <v>845948.1198275</v>
+      </c>
+      <c r="V16" t="n">
+        <v>783205.5827</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>3530</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>44</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8416746.879052799</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1383650.6988725</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1274117.6564</v>
+      </c>
+      <c r="W17" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X17" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>4440</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2820</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>44</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>224306.847196</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41221.61614500001</v>
+      </c>
+      <c r="V18" t="n">
+        <v>29215.0708</v>
+      </c>
+      <c r="W18" t="n">
+        <v>2100</v>
+      </c>
+      <c r="X18" t="n">
+        <v>800</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>870</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>470</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>44</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>303334.8757736</v>
+      </c>
+      <c r="U19" t="n">
+        <v>53274.278702</v>
+      </c>
+      <c r="V19" t="n">
+        <v>39649.2386</v>
+      </c>
+      <c r="W19" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X19" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>1880</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>860</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>44</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>393692.6725694</v>
+      </c>
+      <c r="U20" t="n">
+        <v>66217.71770800001</v>
+      </c>
+      <c r="V20" t="n">
+        <v>54569.5135</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X20" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2250</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>930</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>455440.7102795</v>
+      </c>
+      <c r="U21" t="n">
+        <v>77698.97077699999</v>
+      </c>
+      <c r="V21" t="n">
+        <v>62992.2339</v>
+      </c>
+      <c r="W21" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X21" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2690</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1070</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>44</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>522798.76963</v>
+      </c>
+      <c r="U22" t="n">
+        <v>94145.794733</v>
+      </c>
+      <c r="V22" t="n">
+        <v>77532.83559999999</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2970</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>44</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>660958.9808832001</v>
+      </c>
+      <c r="U23" t="n">
+        <v>127829.7441175</v>
+      </c>
+      <c r="V23" t="n">
+        <v>106924.7731</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>3530</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/44.xlsx
+++ b/opm_hero_property/heroes/44.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6737,6 +6737,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -6745,31 +6785,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -6781,106 +6821,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29397.6377016</v>
+        <v>5287486.5143216</v>
       </c>
       <c r="U2" t="n">
-        <v>5292.547786</v>
+        <v>869676.1198275</v>
       </c>
       <c r="V2" t="n">
-        <v>2145.3584</v>
+        <v>805045.5827</v>
       </c>
       <c r="W2" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X2" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>1700</v>
+        <v>3530</v>
       </c>
       <c r="AA2" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB2" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
         <v>400</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>81</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11858406.163775</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1473633.17788135</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15933395.84165635</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -6892,73 +6956,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>41566.9851462</v>
+        <v>660958.9808832001</v>
       </c>
       <c r="U3" t="n">
-        <v>7503.314112999999</v>
+        <v>127829.7441175</v>
       </c>
       <c r="V3" t="n">
-        <v>3336.479</v>
+        <v>106924.7731</v>
       </c>
       <c r="W3" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X3" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>1700</v>
+        <v>3530</v>
       </c>
       <c r="AA3" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB3" t="n">
-        <v>400</v>
+        <v>1910</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1345221.977575</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>166635.43304395</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2173933.66061895</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -6967,16 +7055,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6985,10 +7073,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7003,10 +7091,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7017,50 +7105,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>75244.107384</v>
+        <v>7442.584800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>13056.79875</v>
+        <v>1560.8812</v>
       </c>
       <c r="V4" t="n">
-        <v>7284.078</v>
+        <v>644.3584000000001</v>
       </c>
       <c r="W4" t="n">
-        <v>2100</v>
+        <v>600</v>
       </c>
       <c r="X4" t="n">
-        <v>800</v>
+        <v>160</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>1700</v>
+        <v>160</v>
       </c>
       <c r="AA4" t="n">
-        <v>1200</v>
+        <v>240</v>
       </c>
       <c r="AB4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7070,6 +7158,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19194.87588</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4456.85</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23651.72588</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7078,16 +7190,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7096,13 +7208,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7114,10 +7226,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7128,59 +7240,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>75244.107384</v>
+        <v>19884.0486</v>
       </c>
       <c r="U5" t="n">
-        <v>13056.79875</v>
+        <v>3890.9646</v>
       </c>
       <c r="V5" t="n">
-        <v>7284.078</v>
+        <v>2013.479</v>
       </c>
       <c r="W5" t="n">
-        <v>2100</v>
+        <v>777</v>
       </c>
       <c r="X5" t="n">
-        <v>800</v>
+        <v>320</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>1770</v>
+        <v>320</v>
       </c>
       <c r="AA5" t="n">
-        <v>1200</v>
+        <v>480</v>
       </c>
       <c r="AB5" t="n">
-        <v>470</v>
+        <v>160</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49250.45858999999</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11828.8</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61079.25859</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7204,16 +7340,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7235,39 +7371,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>66951.76346399999</v>
+        <v>55675.352</v>
       </c>
       <c r="U6" t="n">
-        <v>11970.46125</v>
+        <v>10054.25</v>
       </c>
       <c r="V6" t="n">
-        <v>7284.078</v>
+        <v>6484.078</v>
       </c>
       <c r="W6" t="n">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="X6" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>870</v>
+        <v>600</v>
       </c>
       <c r="AA6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
-        <v>470</v>
+        <v>300</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7282,16 +7418,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119068.8255</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9356.799999999999</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>167268.1255</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7300,31 +7460,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7336,10 +7496,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7350,59 +7510,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>276598.5904806</v>
+        <v>55675.352</v>
       </c>
       <c r="U7" t="n">
-        <v>44888.85428</v>
+        <v>10054.25</v>
       </c>
       <c r="V7" t="n">
-        <v>32239.0205</v>
+        <v>6484.078</v>
       </c>
       <c r="W7" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X7" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2550</v>
+        <v>670</v>
       </c>
       <c r="AA7" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119068.8255</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>167450.1255</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7411,31 +7595,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7447,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7461,59 +7645,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>238732.5724026</v>
+        <v>55951.763464</v>
       </c>
       <c r="U8" t="n">
-        <v>40334.19788000001</v>
+        <v>10090.46125</v>
       </c>
       <c r="V8" t="n">
-        <v>32239.0205</v>
+        <v>6484.078</v>
       </c>
       <c r="W8" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X8" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>1650</v>
+        <v>670</v>
       </c>
       <c r="AA8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119068.8255</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>526.269089</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9538.799999999999</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>167976.394589</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7537,7 +7745,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7546,7 +7754,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7568,21 +7776,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>251354.5784286</v>
+        <v>236681.3718</v>
       </c>
       <c r="U9" t="n">
-        <v>41852.41668</v>
+        <v>40339.376</v>
       </c>
       <c r="V9" t="n">
-        <v>32239.0205</v>
+        <v>32366.0205</v>
       </c>
       <c r="W9" t="n">
         <v>3380</v>
@@ -7594,7 +7802,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1950</v>
+        <v>1650</v>
       </c>
       <c r="AA9" t="n">
         <v>2160</v>
@@ -7618,13 +7826,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>713946.684075</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7648,7 +7880,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7657,7 +7889,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -7679,21 +7911,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>263976.5844546</v>
+        <v>237943.5724026</v>
       </c>
       <c r="U10" t="n">
-        <v>43370.63548</v>
+        <v>40491.19788000001</v>
       </c>
       <c r="V10" t="n">
-        <v>32239.0205</v>
+        <v>32366.0205</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7705,7 +7937,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2250</v>
+        <v>1650</v>
       </c>
       <c r="AA10" t="n">
         <v>2160</v>
@@ -7729,13 +7961,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2309.7715746</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>716256.4556496</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -7759,7 +8015,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -7768,7 +8024,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -7790,21 +8046,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>276598.5904806</v>
+        <v>250565.5784286</v>
       </c>
       <c r="U11" t="n">
-        <v>44888.85428</v>
+        <v>42009.41668</v>
       </c>
       <c r="V11" t="n">
-        <v>32239.0205</v>
+        <v>32366.0205</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -7816,7 +8072,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2550</v>
+        <v>1950</v>
       </c>
       <c r="AA11" t="n">
         <v>2160</v>
@@ -7840,13 +8096,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>25662.4873206</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>739609.1713956001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -7870,13 +8150,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -7901,21 +8181,21 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>276598.5904806</v>
+        <v>263187.5844546</v>
       </c>
       <c r="U12" t="n">
-        <v>44888.85428</v>
+        <v>43527.63548</v>
       </c>
       <c r="V12" t="n">
-        <v>32239.0205</v>
+        <v>32366.0205</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -7927,13 +8207,13 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2480</v>
+        <v>2250</v>
       </c>
       <c r="AA12" t="n">
         <v>2160</v>
       </c>
       <c r="AB12" t="n">
-        <v>860</v>
+        <v>930</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -7948,7 +8228,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -7958,6 +8238,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>49015.20306660001</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>762961.8871416</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -7966,10 +8270,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -7984,13 +8288,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8002,10 +8306,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8016,17 +8320,17 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>409120.098871</v>
+        <v>275809.5904806</v>
       </c>
       <c r="U13" t="n">
-        <v>66857.330099</v>
+        <v>45045.85428</v>
       </c>
       <c r="V13" t="n">
-        <v>54877.5102</v>
+        <v>32366.0205</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8038,37 +8342,61 @@
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2620</v>
+        <v>2550</v>
       </c>
       <c r="AA13" t="n">
         <v>2160</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>930</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>72367.91881259999</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>38885</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>786314.6028876</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8077,10 +8405,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8095,13 +8423,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8113,10 +8441,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8127,17 +8455,17 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>409120.098871</v>
+        <v>275809.5904806</v>
       </c>
       <c r="U14" t="n">
-        <v>66857.330099</v>
+        <v>45045.85428</v>
       </c>
       <c r="V14" t="n">
-        <v>54877.5102</v>
+        <v>32366.0205</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8149,37 +8477,61 @@
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2690</v>
+        <v>2480</v>
       </c>
       <c r="AA14" t="n">
         <v>2160</v>
       </c>
       <c r="AB14" t="n">
-        <v>1070</v>
+        <v>860</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>545633.434075</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>72367.91881259999</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38703</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>786132.6028876</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8188,10 +8540,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8206,13 +8558,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8224,10 +8576,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8238,17 +8590,17 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>973168.2035977</v>
+        <v>411620.098871</v>
       </c>
       <c r="U15" t="n">
-        <v>164352.156134</v>
+        <v>67665.330099</v>
       </c>
       <c r="V15" t="n">
-        <v>156579.2</v>
+        <v>55651.5102</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8260,37 +8612,61 @@
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2970</v>
+        <v>2620</v>
       </c>
       <c r="AA15" t="n">
         <v>2160</v>
       </c>
       <c r="AB15" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>845311.8186699999</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>108014.0415341</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111419.8</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1212273.0602041</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8299,10 +8675,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8317,13 +8693,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8335,10 +8711,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8349,17 +8725,17 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5152609.5143216</v>
+        <v>411620.098871</v>
       </c>
       <c r="U16" t="n">
-        <v>845948.1198275</v>
+        <v>67665.330099</v>
       </c>
       <c r="V16" t="n">
-        <v>783205.5827</v>
+        <v>55651.5102</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8371,37 +8747,61 @@
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>3530</v>
+        <v>2690</v>
       </c>
       <c r="AA16" t="n">
         <v>2160</v>
       </c>
       <c r="AB16" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>845311.8186699999</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>108014.0415341</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111601.8</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1212455.0602041</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8410,10 +8810,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8428,13 +8828,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8446,10 +8846,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8460,17 +8860,17 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8416746.879052799</v>
+        <v>1010663.2035977</v>
       </c>
       <c r="U17" t="n">
-        <v>1383650.6988725</v>
+        <v>171209.156134</v>
       </c>
       <c r="V17" t="n">
-        <v>1274117.6564</v>
+        <v>163212.2</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8482,70 +8882,94 @@
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>4440</v>
+        <v>2970</v>
       </c>
       <c r="AA17" t="n">
         <v>2160</v>
       </c>
       <c r="AB17" t="n">
-        <v>2820</v>
+        <v>1350</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1951165.48942</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>238380.2915023</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685602</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3145152.5309223</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8557,106 +8981,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>224306.847196</v>
+        <v>5287486.5143216</v>
       </c>
       <c r="U18" t="n">
-        <v>41221.61614500001</v>
+        <v>869676.1198275</v>
       </c>
       <c r="V18" t="n">
-        <v>29215.0708</v>
+        <v>805045.5827</v>
       </c>
       <c r="W18" t="n">
-        <v>2100</v>
+        <v>3380</v>
       </c>
       <c r="X18" t="n">
-        <v>800</v>
+        <v>1440</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>870</v>
+        <v>3530</v>
       </c>
       <c r="AA18" t="n">
-        <v>1200</v>
+        <v>2160</v>
       </c>
       <c r="AB18" t="n">
-        <v>470</v>
+        <v>1910</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11858406.163775</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1473633.17788135</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2006045.6</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15933395.84165635</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -8668,31 +9116,31 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>303334.8757736</v>
+        <v>8726464.879052799</v>
       </c>
       <c r="U19" t="n">
-        <v>53274.278702</v>
+        <v>1437683.6988725</v>
       </c>
       <c r="V19" t="n">
-        <v>39649.2386</v>
+        <v>1323349.6564</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -8704,37 +9152,61 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1880</v>
+        <v>4440</v>
       </c>
       <c r="AA19" t="n">
         <v>2160</v>
       </c>
       <c r="AB19" t="n">
-        <v>860</v>
+        <v>2820</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19234909.23025</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2396023.69532305</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3467427.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26274240.92557305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -8743,31 +9215,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -8779,73 +9251,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>393692.6725694</v>
+        <v>213306.847196</v>
       </c>
       <c r="U20" t="n">
-        <v>66217.71770800001</v>
+        <v>39341.61614500001</v>
       </c>
       <c r="V20" t="n">
-        <v>54569.5135</v>
+        <v>28415.0708</v>
       </c>
       <c r="W20" t="n">
-        <v>3380</v>
+        <v>1300</v>
       </c>
       <c r="X20" t="n">
-        <v>1440</v>
+        <v>600</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2250</v>
+        <v>670</v>
       </c>
       <c r="AA20" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AB20" t="n">
-        <v>930</v>
+        <v>370</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>570650.9452</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32682</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2484.0104965</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32753.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>653267.6556965001</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -8854,31 +9350,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -8890,73 +9386,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>455440.7102795</v>
+        <v>280234.8757736</v>
       </c>
       <c r="U21" t="n">
-        <v>77698.97077699999</v>
+        <v>49326.278702</v>
       </c>
       <c r="V21" t="n">
-        <v>62992.2339</v>
+        <v>37969.2386</v>
       </c>
       <c r="W21" t="n">
-        <v>3380</v>
+        <v>1700</v>
       </c>
       <c r="X21" t="n">
-        <v>1440</v>
+        <v>900</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2690</v>
+        <v>1340</v>
       </c>
       <c r="AA21" t="n">
-        <v>2160</v>
+        <v>1350</v>
       </c>
       <c r="AB21" t="n">
-        <v>1070</v>
+        <v>590</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>680956.30391</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49023</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>32003.3168574</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65507.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>846518.3207674</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8965,10 +9485,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -8980,16 +9500,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9001,31 +9521,31 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>522798.76963</v>
+        <v>393692.6725694</v>
       </c>
       <c r="U22" t="n">
-        <v>94145.794733</v>
+        <v>66217.71770800001</v>
       </c>
       <c r="V22" t="n">
-        <v>77532.83559999999</v>
+        <v>54569.5135</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9037,37 +9557,61 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2970</v>
+        <v>2250</v>
       </c>
       <c r="AA22" t="n">
         <v>2160</v>
       </c>
       <c r="AB22" t="n">
-        <v>1350</v>
+        <v>930</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>869359.4270650001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>75259.90031459999</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95389.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1177698.6273796</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9076,10 +9620,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9094,13 +9638,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9112,10 +9656,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9126,17 +9670,17 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>660958.9808832001</v>
+        <v>455440.7102795</v>
       </c>
       <c r="U23" t="n">
-        <v>127829.7441175</v>
+        <v>77698.97077699999</v>
       </c>
       <c r="V23" t="n">
-        <v>106924.7731</v>
+        <v>62992.2339</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9148,37 +9692,331 @@
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>3530</v>
+        <v>2690</v>
       </c>
       <c r="AA23" t="n">
         <v>2160</v>
       </c>
       <c r="AB23" t="n">
-        <v>1910</v>
+        <v>1070</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>950788.444885</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>120534.6586808</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>151723</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1367716.9535658</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>44</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>522798.76963</v>
+      </c>
+      <c r="U24" t="n">
+        <v>94145.794733</v>
+      </c>
+      <c r="V24" t="n">
+        <v>77532.83559999999</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2970</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1350</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1079145.60804</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>135450.4999477</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>260818.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1632894.5579877</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>44</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>660958.9808832001</v>
+      </c>
+      <c r="U25" t="n">
+        <v>127829.7441175</v>
+      </c>
+      <c r="V25" t="n">
+        <v>106924.7731</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3380</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1440</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>3530</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1910</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1345221.977575</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114307.2</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>166635.43304395</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>479008.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2173933.66061895</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/44.xlsx
+++ b/opm_hero_property/heroes/44.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43299;31,8193;41,2763</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64949;31,12289;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,32412;31,6133;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5252;31,981;41,401</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7879;31,1472;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3932;31,734;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>43299.55</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>8193.325000000001</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>2763.9753</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>64949.325</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>12289.9875</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>32412.806</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>6133.289000000001</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>5252.695000000001</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>981.5050000000001</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>401.3849</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>7879.0425</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>1472.2575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>3932.0174</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>734.7266000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,43303;31,8194;41,2764</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,64955;31,12291;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,32416;31,6134;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5257;31,982;41,401</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7885;31,1474;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,3935;31,735;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>43303.925</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>8194.515000000001</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>2764.4988</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>64955.8875</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>12291.7725</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>32416.081</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>6134.1798</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>5257.070000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>982.6950000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>401.9084</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>7885.605</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>1474.0425</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>3935.2924</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>735.6174</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,46331;31,9021;41,3265</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,69496;31,13532;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,34682;31,6753;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5583;31,1071;41,457</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8374;31,1607;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4179;31,802;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>46331.32217</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>9021.343236500001</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>3265.93842624</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>69496.983255</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>13532.01485475</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>34682.3040244</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>6753.119794180001</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>5583.140465</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1071.7540505</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>457.29095872</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>8374.710697499999</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>1607.63107575</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>4179.3794338</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>802.28446066</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,49763;31,9958;41,3834</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,74644;31,14938;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,37251;31,7454;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,5952;31,1172;41,520</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,8928;31,1758;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,4455;31,877;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>49763.24790500001</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>9958.7408165</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3834.01184421</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>74644.87185750001</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>14938.11122475</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>37251.3455746</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>7454.82883978</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>5952.2943725</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>1172.5805105</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>520.00629013</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>8928.441558750001</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>1758.87076575</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>4455.717501700001</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>877.7602678600001</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,53800;31,11061;41,4515</t>
+          <t>21,53800;31,11061;41,4502</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,53800;31,11061;41,4515</t>
+          <t>21,80700;31,16592;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,26900;31,5530;41,2257</t>
+          <t>21,40273;31,8280;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6386;31,1291;41,595</t>
+          <t>21,6386;31,1291;41,593</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6386;31,1291;41,595</t>
+          <t>21,9579;31,1936;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3193;31,645;41,297</t>
+          <t>21,4780;31,966;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>53800</v>
+        <v>53800.24007400001</v>
       </c>
       <c r="O6" t="n">
-        <v>11061</v>
+        <v>11061.728874</v>
       </c>
       <c r="P6" t="n">
-        <v>4515</v>
+        <v>4502.41650112</v>
       </c>
       <c r="Q6" t="n">
-        <v>53800</v>
+        <v>80700.360111</v>
       </c>
       <c r="R6" t="n">
-        <v>11061</v>
+        <v>16592.593311</v>
       </c>
       <c r="S6" t="n">
-        <v>4515</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>26900</v>
+        <v>40273.32256968</v>
       </c>
       <c r="U6" t="n">
-        <v>5530</v>
+        <v>8280.494185680001</v>
       </c>
       <c r="V6" t="n">
-        <v>2257</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6386</v>
+        <v>6386.249373000001</v>
       </c>
       <c r="X6" t="n">
-        <v>1291</v>
+        <v>1291.155138</v>
       </c>
       <c r="Y6" t="n">
-        <v>595</v>
+        <v>593.74694336</v>
       </c>
       <c r="Z6" t="n">
-        <v>6386</v>
+        <v>9579.3740595</v>
       </c>
       <c r="AA6" t="n">
-        <v>1291</v>
+        <v>1936.732707</v>
       </c>
       <c r="AB6" t="n">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3193</v>
+        <v>4780.563816360001</v>
       </c>
       <c r="AD6" t="n">
-        <v>645</v>
+        <v>966.5218461600001</v>
       </c>
       <c r="AE6" t="n">
-        <v>297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,60343;31,12331;41,5915</t>
+          <t>21,60343;31,12331;41,5899</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,60343;31,12331;41,5915</t>
+          <t>21,90514;31,18496;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,30171;31,6165;41,2957</t>
+          <t>21,45171;31,9230;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7096;31,1429;41,750</t>
+          <t>21,7096;31,1429;41,748</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7096;31,1429;41,750</t>
+          <t>21,10644;31,2143;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3548;31,714;41,375</t>
+          <t>21,5312;31,1069;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>60343</v>
+        <v>60343.20386500001</v>
       </c>
       <c r="O7" t="n">
-        <v>12331</v>
+        <v>12331.2853335</v>
       </c>
       <c r="P7" t="n">
-        <v>5915</v>
+        <v>5899.05127977</v>
       </c>
       <c r="Q7" t="n">
-        <v>60343</v>
+        <v>90514.8057975</v>
       </c>
       <c r="R7" t="n">
-        <v>12331</v>
+        <v>18496.92800025</v>
       </c>
       <c r="S7" t="n">
-        <v>5915</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>30171</v>
+        <v>45171.1983218</v>
       </c>
       <c r="U7" t="n">
-        <v>6165</v>
+        <v>9230.847878220002</v>
       </c>
       <c r="V7" t="n">
-        <v>2957</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7096</v>
+        <v>7096.630292500001</v>
       </c>
       <c r="X7" t="n">
-        <v>1429</v>
+        <v>1429.1770395</v>
       </c>
       <c r="Y7" t="n">
-        <v>750</v>
+        <v>748.84046681</v>
       </c>
       <c r="Z7" t="n">
-        <v>7096</v>
+        <v>10644.94543875</v>
       </c>
       <c r="AA7" t="n">
-        <v>1429</v>
+        <v>2143.76555925</v>
       </c>
       <c r="AB7" t="n">
-        <v>750</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3548</v>
+        <v>5312.3346761</v>
       </c>
       <c r="AD7" t="n">
-        <v>714</v>
+        <v>1069.84109814</v>
       </c>
       <c r="AE7" t="n">
-        <v>375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,68802;31,13765;41,7852</t>
+          <t>21,68802;31,13765;41,7830</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,68802;31,13765;41,7852</t>
+          <t>21,103203;31,20648;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,34401;31,6882;41,3926</t>
+          <t>21,51503;31,10304;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8011;31,1584;41,965</t>
+          <t>21,8011;31,1584;41,962</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8011;31,1584;41,965</t>
+          <t>21,12017;31,2376;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4005;31,792;41,482</t>
+          <t>21,5997;31,1185;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>68802</v>
+        <v>68802.64480600001</v>
       </c>
       <c r="O8" t="n">
-        <v>13765</v>
+        <v>13765.7672705</v>
       </c>
       <c r="P8" t="n">
-        <v>7852</v>
+        <v>7830.15286341</v>
       </c>
       <c r="Q8" t="n">
-        <v>68802</v>
+        <v>103203.967209</v>
       </c>
       <c r="R8" t="n">
-        <v>13765</v>
+        <v>20648.65090575</v>
       </c>
       <c r="S8" t="n">
-        <v>7852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>34401</v>
+        <v>51503.69411192</v>
       </c>
       <c r="U8" t="n">
-        <v>6882</v>
+        <v>10304.66007106</v>
       </c>
       <c r="V8" t="n">
-        <v>3926</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8011</v>
+        <v>8011.379887000001</v>
       </c>
       <c r="X8" t="n">
-        <v>1584</v>
+        <v>1584.2821085</v>
       </c>
       <c r="Y8" t="n">
-        <v>965</v>
+        <v>962.8113477300001</v>
       </c>
       <c r="Z8" t="n">
-        <v>8011</v>
+        <v>12017.0698305</v>
       </c>
       <c r="AA8" t="n">
-        <v>1584</v>
+        <v>2376.42316275</v>
       </c>
       <c r="AB8" t="n">
-        <v>965</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4005</v>
+        <v>5997.09008684</v>
       </c>
       <c r="AD8" t="n">
-        <v>792</v>
+        <v>1185.94832122</v>
       </c>
       <c r="AE8" t="n">
-        <v>482</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,79680;31,15420;41,10459</t>
+          <t>21,79680;31,15420;41,10429</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,79680;31,15420;41,10459</t>
+          <t>21,119520;31,23130;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,39840;31,7710;41,5229</t>
+          <t>21,59646;31,11542;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9183;31,1762;41,1253</t>
+          <t>21,9183;31,1762;41,1250</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9183;31,1762;41,1253</t>
+          <t>21,13774;31,2643;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4591;31,881;41,626</t>
+          <t>21,6874;31,1319;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>79680</v>
+        <v>79680.32148300001</v>
       </c>
       <c r="O9" t="n">
-        <v>15420</v>
+        <v>15420.020819</v>
       </c>
       <c r="P9" t="n">
-        <v>10459</v>
+        <v>10429.24030396</v>
       </c>
       <c r="Q9" t="n">
-        <v>79680</v>
+        <v>119520.4822245</v>
       </c>
       <c r="R9" t="n">
-        <v>15420</v>
+        <v>23130.0312285</v>
       </c>
       <c r="S9" t="n">
-        <v>10459</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39840</v>
+        <v>59646.41208156</v>
       </c>
       <c r="U9" t="n">
-        <v>7710</v>
+        <v>11542.98701308</v>
       </c>
       <c r="V9" t="n">
-        <v>5229</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9183</v>
+        <v>9183.303853500001</v>
       </c>
       <c r="X9" t="n">
-        <v>1762</v>
+        <v>1762.276103</v>
       </c>
       <c r="Y9" t="n">
-        <v>1253</v>
+        <v>1250.10408188</v>
       </c>
       <c r="Z9" t="n">
-        <v>9183</v>
+        <v>13774.95578025</v>
       </c>
       <c r="AA9" t="n">
-        <v>1762</v>
+        <v>2643.4141545</v>
       </c>
       <c r="AB9" t="n">
-        <v>1253</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4591</v>
+        <v>6874.35888462</v>
       </c>
       <c r="AD9" t="n">
-        <v>881</v>
+        <v>1319.18953996</v>
       </c>
       <c r="AE9" t="n">
-        <v>626</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,87828;31,16302;41,12629</t>
+          <t>21,87828;31,16302;41,12593</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,87828;31,16302;41,12629</t>
+          <t>21,131743;31,24453;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,43914;31,8151;41,6314</t>
+          <t>21,65746;31,12203;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10061;31,1857;41,1493</t>
+          <t>21,10061;31,1857;41,1489</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10061;31,1857;41,1493</t>
+          <t>21,15091;31,2785;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5030;31,928;41,746</t>
+          <t>21,7531;31,1390;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>87828</v>
+        <v>87828.96388000001</v>
       </c>
       <c r="O10" t="n">
-        <v>16302</v>
+        <v>16302.432265</v>
       </c>
       <c r="P10" t="n">
-        <v>12629</v>
+        <v>12593.78724423</v>
       </c>
       <c r="Q10" t="n">
-        <v>87828</v>
+        <v>131743.44582</v>
       </c>
       <c r="R10" t="n">
-        <v>16302</v>
+        <v>24453.6483975</v>
       </c>
       <c r="S10" t="n">
-        <v>12629</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>43914</v>
+        <v>65746.2529616</v>
       </c>
       <c r="U10" t="n">
-        <v>8151</v>
+        <v>12203.5350098</v>
       </c>
       <c r="V10" t="n">
-        <v>6314</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10061</v>
+        <v>10061.19226</v>
       </c>
       <c r="X10" t="n">
-        <v>1857</v>
+        <v>1857.156805</v>
       </c>
       <c r="Y10" t="n">
-        <v>1493</v>
+        <v>1489.37610519</v>
       </c>
       <c r="Z10" t="n">
-        <v>10061</v>
+        <v>15091.78839</v>
       </c>
       <c r="AA10" t="n">
-        <v>1857</v>
+        <v>2785.7352075</v>
       </c>
       <c r="AB10" t="n">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5030</v>
+        <v>7531.5210632</v>
       </c>
       <c r="AD10" t="n">
-        <v>928</v>
+        <v>1390.2145226</v>
       </c>
       <c r="AE10" t="n">
-        <v>746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,97771;31,17349;41,15295</t>
+          <t>21,97771;31,17349;41,15251</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,97771;31,17349;41,15295</t>
+          <t>21,146656;31,26024;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,48885;31,8674;41,7647</t>
+          <t>21,73188;31,12987;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11130;31,1969;41,1787</t>
+          <t>21,11130;31,1969;41,1782</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11130;31,1969;41,1787</t>
+          <t>21,16696;31,2954;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5565;31,984;41,893</t>
+          <t>21,8332;31,1474;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>97771</v>
+        <v>97771.166444</v>
       </c>
       <c r="O11" t="n">
-        <v>17349</v>
+        <v>17349.487113</v>
       </c>
       <c r="P11" t="n">
-        <v>15295</v>
+        <v>15251.30414961</v>
       </c>
       <c r="Q11" t="n">
-        <v>97771</v>
+        <v>146656.749666</v>
       </c>
       <c r="R11" t="n">
-        <v>17349</v>
+        <v>26024.2306695</v>
       </c>
       <c r="S11" t="n">
-        <v>15295</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>48885</v>
+        <v>73188.70173808</v>
       </c>
       <c r="U11" t="n">
-        <v>8674</v>
+        <v>12987.33035316</v>
       </c>
       <c r="V11" t="n">
-        <v>7647</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11130</v>
+        <v>11130.868238</v>
       </c>
       <c r="X11" t="n">
-        <v>1969</v>
+        <v>1969.559781</v>
       </c>
       <c r="Y11" t="n">
-        <v>1787</v>
+        <v>1782.88505633</v>
       </c>
       <c r="Z11" t="n">
-        <v>11130</v>
+        <v>16696.302357</v>
       </c>
       <c r="AA11" t="n">
-        <v>1969</v>
+        <v>2954.3396715</v>
       </c>
       <c r="AB11" t="n">
-        <v>1787</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5565</v>
+        <v>8332.249938160001</v>
       </c>
       <c r="AD11" t="n">
-        <v>984</v>
+        <v>1474.35617892</v>
       </c>
       <c r="AE11" t="n">
-        <v>893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,116087;31,19554;41,20037</t>
+          <t>21,116087;31,19554;41,19980</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,116087;31,19554;41,20037</t>
+          <t>21,174131;31,29332;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,58043;31,9777;41,10018</t>
+          <t>21,86900;31,14638;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13098;31,2206;41,2311</t>
+          <t>21,13098;31,2206;41,2304</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13098;31,2206;41,2311</t>
+          <t>21,19648;31,3309;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6549;31,1103;41,1155</t>
+          <t>21,9805;31,1651;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>116087</v>
+        <v>116087.979063</v>
       </c>
       <c r="O12" t="n">
-        <v>19554</v>
+        <v>19554.973228</v>
       </c>
       <c r="P12" t="n">
-        <v>20037</v>
+        <v>19980.38961745</v>
       </c>
       <c r="Q12" t="n">
-        <v>116087</v>
+        <v>174131.9685945</v>
       </c>
       <c r="R12" t="n">
-        <v>19554</v>
+        <v>29332.459842</v>
       </c>
       <c r="S12" t="n">
-        <v>20037</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>58043</v>
+        <v>86900.14432716</v>
       </c>
       <c r="U12" t="n">
-        <v>9777</v>
+        <v>14638.29424496</v>
       </c>
       <c r="V12" t="n">
-        <v>10018</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13098</v>
+        <v>13098.9472635</v>
       </c>
       <c r="X12" t="n">
-        <v>2206</v>
+        <v>2206.219036</v>
       </c>
       <c r="Y12" t="n">
-        <v>2311</v>
+        <v>2304.66953985</v>
       </c>
       <c r="Z12" t="n">
-        <v>13098</v>
+        <v>19648.42089525</v>
       </c>
       <c r="AA12" t="n">
-        <v>2206</v>
+        <v>3309.328554</v>
       </c>
       <c r="AB12" t="n">
-        <v>2311</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6549</v>
+        <v>9805.497665820001</v>
       </c>
       <c r="AD12" t="n">
-        <v>1103</v>
+        <v>1651.51253552</v>
       </c>
       <c r="AE12" t="n">
-        <v>1155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,118924;31,19996;41,20709</t>
+          <t>21,118924;31,19996;41,20650</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,118924;31,19996;41,20709</t>
+          <t>21,178387;31,29995;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,59462;31,9998;41,10354</t>
+          <t>21,89023;31,14969;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,13413;31,2255;41,2387</t>
+          <t>21,13413;31,2255;41,2380</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,13413;31,2255;41,2387</t>
+          <t>21,20120;31,3382;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,6706;31,1127;41,1193</t>
+          <t>21,10040;31,1688;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>118924</v>
+        <v>118924.883364</v>
       </c>
       <c r="O13" t="n">
-        <v>19996</v>
+        <v>19996.9993755</v>
       </c>
       <c r="P13" t="n">
-        <v>20709</v>
+        <v>20650.57417436</v>
       </c>
       <c r="Q13" t="n">
-        <v>118924</v>
+        <v>178387.325046</v>
       </c>
       <c r="R13" t="n">
-        <v>19996</v>
+        <v>29995.49906325</v>
       </c>
       <c r="S13" t="n">
-        <v>20709</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>59462</v>
+        <v>89023.76983248</v>
       </c>
       <c r="U13" t="n">
-        <v>9998</v>
+        <v>14969.18238966</v>
       </c>
       <c r="V13" t="n">
-        <v>10354</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>13413</v>
+        <v>13413.345078</v>
       </c>
       <c r="X13" t="n">
-        <v>2255</v>
+        <v>2255.200993500001</v>
       </c>
       <c r="Y13" t="n">
-        <v>2387</v>
+        <v>2380.19009308</v>
       </c>
       <c r="Z13" t="n">
-        <v>13413</v>
+        <v>20120.017617</v>
       </c>
       <c r="AA13" t="n">
-        <v>2255</v>
+        <v>3382.80149025</v>
       </c>
       <c r="AB13" t="n">
-        <v>2387</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>6706</v>
+        <v>10040.84688696</v>
       </c>
       <c r="AD13" t="n">
-        <v>1127</v>
+        <v>1688.17902942</v>
       </c>
       <c r="AE13" t="n">
-        <v>1193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,121761;31,20439;41,21381</t>
+          <t>21,121761;31,20439;41,21320</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,121761;31,20439;41,21381</t>
+          <t>21,182642;31,30659;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,60880;31,10219;41,10690</t>
+          <t>21,91147;31,15300;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,13727;31,2304;41,2462</t>
+          <t>21,13727;31,2304;41,2455</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,13727;31,2304;41,2462</t>
+          <t>21,20591;31,3456;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,6863;31,1152;41,1231</t>
+          <t>21,10276;31,1724;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>121761</v>
+        <v>121761.752665</v>
       </c>
       <c r="O14" t="n">
-        <v>20439</v>
+        <v>20439.8675985</v>
       </c>
       <c r="P14" t="n">
-        <v>21381</v>
+        <v>21320.75873127</v>
       </c>
       <c r="Q14" t="n">
-        <v>121761</v>
+        <v>182642.6289975</v>
       </c>
       <c r="R14" t="n">
-        <v>20439</v>
+        <v>30659.80139775</v>
       </c>
       <c r="S14" t="n">
-        <v>21381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>60880</v>
+        <v>91147.36913780001</v>
       </c>
       <c r="U14" t="n">
-        <v>10219</v>
+        <v>15300.70088802</v>
       </c>
       <c r="V14" t="n">
-        <v>10690</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>13727</v>
+        <v>13727.7078925</v>
       </c>
       <c r="X14" t="n">
-        <v>2304</v>
+        <v>2304.3038445</v>
       </c>
       <c r="Y14" t="n">
-        <v>2462</v>
+        <v>2455.71064631</v>
       </c>
       <c r="Z14" t="n">
-        <v>13727</v>
+        <v>20591.56183875</v>
       </c>
       <c r="AA14" t="n">
-        <v>2304</v>
+        <v>3456.45576675</v>
       </c>
       <c r="AB14" t="n">
-        <v>2462</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>6863</v>
+        <v>10276.1699081</v>
       </c>
       <c r="AD14" t="n">
-        <v>1152</v>
+        <v>1724.93602074</v>
       </c>
       <c r="AE14" t="n">
-        <v>1231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,124598;31,20882;41,22054</t>
+          <t>21,124598;31,20882;41,21991</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,124598;31,20882;41,22054</t>
+          <t>21,186897;31,31324;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,62299;31,10441;41,11027</t>
+          <t>21,93270;31,15632;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14042;31,2353;41,2538</t>
+          <t>21,14042;31,2353;41,2531</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14042;31,2353;41,2538</t>
+          <t>21,21063;31,3530;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7021;31,1176;41,1269</t>
+          <t>21,10511;31,1761;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>124598</v>
+        <v>124598.656966</v>
       </c>
       <c r="O15" t="n">
-        <v>20882</v>
+        <v>20882.7008215</v>
       </c>
       <c r="P15" t="n">
-        <v>22054</v>
+        <v>21991.20862241</v>
       </c>
       <c r="Q15" t="n">
-        <v>124598</v>
+        <v>186897.985449</v>
       </c>
       <c r="R15" t="n">
-        <v>20882</v>
+        <v>31324.05123225</v>
       </c>
       <c r="S15" t="n">
-        <v>22054</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62299</v>
+        <v>93270.99464311999</v>
       </c>
       <c r="U15" t="n">
-        <v>10441</v>
+        <v>15632.19318638</v>
       </c>
       <c r="V15" t="n">
-        <v>11027</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14042</v>
+        <v>14042.105707</v>
       </c>
       <c r="X15" t="n">
-        <v>2353</v>
+        <v>2353.3716955</v>
       </c>
       <c r="Y15" t="n">
-        <v>2538</v>
+        <v>2531.26027473</v>
       </c>
       <c r="Z15" t="n">
-        <v>14042</v>
+        <v>21063.1585605</v>
       </c>
       <c r="AA15" t="n">
-        <v>2353</v>
+        <v>3530.05754325</v>
       </c>
       <c r="AB15" t="n">
-        <v>2538</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7021</v>
+        <v>10511.51912924</v>
       </c>
       <c r="AD15" t="n">
-        <v>1176</v>
+        <v>1761.66681206</v>
       </c>
       <c r="AE15" t="n">
-        <v>1269</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,127435;31,21325;41,22726</t>
+          <t>21,127435;31,21325;41,22661</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,127435;31,21325;41,22726</t>
+          <t>21,191153;31,31988;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,63717;31,10662;41,11363</t>
+          <t>21,95394;31,15963;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,14356;31,2402;41,2614</t>
+          <t>21,14356;31,2402;41,2606</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,14356;31,2402;41,2614</t>
+          <t>21,21534;31,3603;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7178;31,1201;41,1307</t>
+          <t>21,10746;31,1798;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>127435</v>
+        <v>127435.526267</v>
       </c>
       <c r="O16" t="n">
-        <v>21325</v>
+        <v>21325.5340445</v>
       </c>
       <c r="P16" t="n">
-        <v>22726</v>
+        <v>22661.39317932</v>
       </c>
       <c r="Q16" t="n">
-        <v>127435</v>
+        <v>191153.2894005</v>
       </c>
       <c r="R16" t="n">
-        <v>21325</v>
+        <v>31988.30106675</v>
       </c>
       <c r="S16" t="n">
-        <v>22726</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>63717</v>
+        <v>95394.59394844</v>
       </c>
       <c r="U16" t="n">
-        <v>10662</v>
+        <v>15963.68548474</v>
       </c>
       <c r="V16" t="n">
-        <v>11363</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>14356</v>
+        <v>14356.4685215</v>
       </c>
       <c r="X16" t="n">
-        <v>2402</v>
+        <v>2402.4395465</v>
       </c>
       <c r="Y16" t="n">
-        <v>2614</v>
+        <v>2606.78082796</v>
       </c>
       <c r="Z16" t="n">
-        <v>14356</v>
+        <v>21534.70278225</v>
       </c>
       <c r="AA16" t="n">
-        <v>2402</v>
+        <v>3603.65931975</v>
       </c>
       <c r="AB16" t="n">
-        <v>2614</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7178</v>
+        <v>10746.84215038</v>
       </c>
       <c r="AD16" t="n">
-        <v>1201</v>
+        <v>1798.39760338</v>
       </c>
       <c r="AE16" t="n">
-        <v>1307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,130272;31,21768;41,23398</t>
+          <t>21,130272;31,21768;41,23331</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,130272;31,21768;41,23398</t>
+          <t>21,195408;31,32652;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,65136;31,10884;41,11699</t>
+          <t>21,97518;31,16295;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,14670;31,2451;41,2690</t>
+          <t>21,14670;31,2451;41,2682</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,14670;31,2451;41,2690</t>
+          <t>21,22006;31,3677;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7335;31,1225;41,1345</t>
+          <t>21,10982;31,1835;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>130272</v>
+        <v>130272.430568</v>
       </c>
       <c r="O17" t="n">
-        <v>21768</v>
+        <v>21768.3672675</v>
       </c>
       <c r="P17" t="n">
-        <v>23398</v>
+        <v>23331.61263623</v>
       </c>
       <c r="Q17" t="n">
-        <v>130272</v>
+        <v>195408.645852</v>
       </c>
       <c r="R17" t="n">
-        <v>21768</v>
+        <v>32652.55090125</v>
       </c>
       <c r="S17" t="n">
-        <v>23398</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>65136</v>
+        <v>97518.21945376002</v>
       </c>
       <c r="U17" t="n">
-        <v>10884</v>
+        <v>16295.1777831</v>
       </c>
       <c r="V17" t="n">
-        <v>11699</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>14670</v>
+        <v>14670.866336</v>
       </c>
       <c r="X17" t="n">
-        <v>2451</v>
+        <v>2451.5073975</v>
       </c>
       <c r="Y17" t="n">
-        <v>2690</v>
+        <v>2682.33628119</v>
       </c>
       <c r="Z17" t="n">
-        <v>14670</v>
+        <v>22006.299504</v>
       </c>
       <c r="AA17" t="n">
-        <v>2451</v>
+        <v>3677.261096249999</v>
       </c>
       <c r="AB17" t="n">
-        <v>2690</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7335</v>
+        <v>10982.19137152</v>
       </c>
       <c r="AD17" t="n">
-        <v>1225</v>
+        <v>1835.1283947</v>
       </c>
       <c r="AE17" t="n">
-        <v>1345</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5107,13 +5107,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7613</v>
+        <v>7295</v>
       </c>
       <c r="C2" t="n">
-        <v>1412</v>
+        <v>1219</v>
       </c>
       <c r="D2" t="n">
-        <v>961</v>
+        <v>1310</v>
       </c>
       <c r="E2" t="n">
         <v>40</v>
@@ -5122,52 +5122,52 @@
         <v>40</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>7613</v>
+        <v>10298</v>
       </c>
       <c r="I2" t="n">
-        <v>1412</v>
+        <v>1720</v>
       </c>
       <c r="J2" t="n">
-        <v>961</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3806</v>
+        <v>5149</v>
       </c>
       <c r="O2" t="n">
-        <v>706</v>
+        <v>860</v>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>3722</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>684</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>512</v>
       </c>
       <c r="W2" t="n">
         <v>35</v>
@@ -5176,72 +5176,72 @@
         <v>35</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>5254</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>966</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>2627</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>483</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,7613;31,1412;41,961;22,40;32,40;42,40</t>
+          <t>21,7295;31,1219;41,1310;22,40;32,40;42,39</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,7613;31,1412;41,961;22,40;32,40;42,40</t>
+          <t>21,10298;31,1720;41,0;22,60;32,60;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,3806;31,706;41,480;22,20;32,20;42,20</t>
+          <t>21,5149;31,860;41,0;22,30;32,30;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,3722;31,684;41,512;22,35;32,35;42,34</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,5254;31,966;41,0;22,52;32,52;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,2627;31,483;41,0;22,25;32,25;42,0</t>
         </is>
       </c>
     </row>
@@ -5250,13 +5250,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>15338</v>
+        <v>14590</v>
       </c>
       <c r="C3" t="n">
-        <v>2710</v>
+        <v>2438</v>
       </c>
       <c r="D3" t="n">
-        <v>2074</v>
+        <v>2620</v>
       </c>
       <c r="E3" t="n">
         <v>80</v>
@@ -5265,52 +5265,52 @@
         <v>80</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
-        <v>15338</v>
+        <v>20596</v>
       </c>
       <c r="I3" t="n">
-        <v>2710</v>
+        <v>3441</v>
       </c>
       <c r="J3" t="n">
-        <v>2074</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>7669</v>
+        <v>10298</v>
       </c>
       <c r="O3" t="n">
-        <v>1355</v>
+        <v>1720</v>
       </c>
       <c r="P3" t="n">
-        <v>1037</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>4294</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>758</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>642</v>
       </c>
       <c r="W3" t="n">
         <v>70</v>
@@ -5319,72 +5319,72 @@
         <v>70</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>6062</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1070</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>3031</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,15338;31,2710;41,2074;22,80;32,80;42,80</t>
+          <t>21,14590;31,2438;41,2620;22,80;32,80;42,79</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,15338;31,2710;41,2074;22,80;32,80;42,80</t>
+          <t>21,20596;31,3441;41,0;22,120;32,120;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,7669;31,1355;41,1037;22,40;32,40;42,40</t>
+          <t>21,10298;31,1720;41,0;22,60;32,60;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,4294;31,758;41,642;22,70;32,70;42,69</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,6062;31,1070;41,0;22,105;32,105;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,3031;31,535;41,0;22,52;32,52;42,0</t>
         </is>
       </c>
     </row>
@@ -5393,13 +5393,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>22952</v>
+        <v>21885</v>
       </c>
       <c r="C4" t="n">
-        <v>3867</v>
+        <v>3657</v>
       </c>
       <c r="D4" t="n">
-        <v>3397</v>
+        <v>3930</v>
       </c>
       <c r="E4" t="n">
         <v>120</v>
@@ -5408,52 +5408,52 @@
         <v>120</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" t="n">
-        <v>22952</v>
+        <v>30894</v>
       </c>
       <c r="I4" t="n">
-        <v>3867</v>
+        <v>5162</v>
       </c>
       <c r="J4" t="n">
-        <v>3397</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>11476</v>
+        <v>15447</v>
       </c>
       <c r="O4" t="n">
-        <v>1933</v>
+        <v>2580</v>
       </c>
       <c r="P4" t="n">
-        <v>1698</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>5267</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>887</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>868</v>
       </c>
       <c r="W4" t="n">
         <v>105</v>
@@ -5462,72 +5462,72 @@
         <v>105</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>7435</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>1252</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>3717</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>626</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,22952;31,3867;41,3397;22,120;32,120;42,120</t>
+          <t>21,21885;31,3657;41,3930;22,120;32,120;42,119</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,22952;31,3867;41,3397;22,120;32,120;42,120</t>
+          <t>21,30894;31,5162;41,0;22,180;32,180;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,11476;31,1933;41,1698;22,60;32,60;42,60</t>
+          <t>21,15447;31,2580;41,0;22,90;32,90;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,5267;31,887;41,868;22,105;32,105;42,104</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,7435;31,1252;41,0;22,157;32,157;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,3717;31,626;41,0;22,78;32,78;42,0</t>
         </is>
       </c>
     </row>
@@ -5536,13 +5536,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30537</v>
+        <v>29180</v>
       </c>
       <c r="C5" t="n">
-        <v>5134</v>
+        <v>4876</v>
       </c>
       <c r="D5" t="n">
-        <v>4577</v>
+        <v>5241</v>
       </c>
       <c r="E5" t="n">
         <v>160</v>
@@ -5551,52 +5551,52 @@
         <v>160</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H5" t="n">
-        <v>30537</v>
+        <v>41192</v>
       </c>
       <c r="I5" t="n">
-        <v>5134</v>
+        <v>6882</v>
       </c>
       <c r="J5" t="n">
-        <v>4577</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>15268</v>
+        <v>20596</v>
       </c>
       <c r="O5" t="n">
-        <v>2567</v>
+        <v>3441</v>
       </c>
       <c r="P5" t="n">
-        <v>2288</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>5648</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>949</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>947</v>
       </c>
       <c r="W5" t="n">
         <v>140</v>
@@ -5605,72 +5605,72 @@
         <v>140</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>7973</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>1340</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>3986</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>670</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,30537;31,5134;41,4577;22,160;32,160;42,160</t>
+          <t>21,29180;31,4876;41,5241;22,160;32,160;42,159</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,30537;31,5134;41,4577;22,160;32,160;42,160</t>
+          <t>21,41192;31,6882;41,0;22,240;32,240;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,15268;31,2567;41,2288;22,80;32,80;42,80</t>
+          <t>21,20596;31,3441;41,0;22,120;32,120;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,5648;31,949;41,947;22,140;32,140;42,139</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,7973;31,1340;41,0;22,210;32,210;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,3986;31,670;41,0;22,105;32,105;42,0</t>
         </is>
       </c>
     </row>
@@ -5679,13 +5679,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>38095</v>
+        <v>36476</v>
       </c>
       <c r="C6" t="n">
-        <v>6394</v>
+        <v>6095</v>
       </c>
       <c r="D6" t="n">
-        <v>5781</v>
+        <v>6551</v>
       </c>
       <c r="E6" t="n">
         <v>200</v>
@@ -5694,52 +5694,52 @@
         <v>200</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H6" t="n">
-        <v>38095</v>
+        <v>51490</v>
       </c>
       <c r="I6" t="n">
-        <v>6394</v>
+        <v>8603</v>
       </c>
       <c r="J6" t="n">
-        <v>5781</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>19047</v>
+        <v>25745</v>
       </c>
       <c r="O6" t="n">
-        <v>3197</v>
+        <v>4301</v>
       </c>
       <c r="P6" t="n">
-        <v>2890</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>6054</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1016</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1031</v>
       </c>
       <c r="W6" t="n">
         <v>175</v>
@@ -5748,72 +5748,72 @@
         <v>175</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>8547</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>1434</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>4273</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>717</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,38095;31,6394;41,5781;22,200;32,200;42,200</t>
+          <t>21,36476;31,6095;41,6551;22,200;32,200;42,199</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,38095;31,6394;41,5781;22,200;32,200;42,200</t>
+          <t>21,51490;31,8603;41,0;22,300;32,300;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,19047;31,3197;41,2890;22,100;32,100;42,100</t>
+          <t>21,25745;31,4301;41,0;22,150;32,150;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,6054;31,1016;41,1031;22,175;32,175;42,174</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,8547;31,1434;41,0;22,262;32,262;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,4273;31,717;41,0;22,130;32,130;42,0</t>
         </is>
       </c>
     </row>
@@ -5822,13 +5822,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>44424</v>
+        <v>43771</v>
       </c>
       <c r="C7" t="n">
-        <v>7445</v>
+        <v>7314</v>
       </c>
       <c r="D7" t="n">
-        <v>7503</v>
+        <v>7861</v>
       </c>
       <c r="E7" t="n">
         <v>240</v>
@@ -5837,52 +5837,52 @@
         <v>240</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H7" t="n">
-        <v>44424</v>
+        <v>61788</v>
       </c>
       <c r="I7" t="n">
-        <v>7445</v>
+        <v>10324</v>
       </c>
       <c r="J7" t="n">
-        <v>7503</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>360</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>22212</v>
+        <v>30894</v>
       </c>
       <c r="O7" t="n">
-        <v>3722</v>
+        <v>5161</v>
       </c>
       <c r="P7" t="n">
-        <v>3751</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>6487</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1087</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1121</v>
       </c>
       <c r="W7" t="n">
         <v>210</v>
@@ -5891,72 +5891,72 @@
         <v>210</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>9157</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>1534</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>4578</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>767</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,44424;31,7445;41,7503;22,240;32,240;42,240</t>
+          <t>21,43771;31,7314;41,7861;22,240;32,240;42,239</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,44424;31,7445;41,7503;22,240;32,240;42,240</t>
+          <t>21,61788;31,10324;41,0;22,360;32,360;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,22212;31,3722;41,3751;22,120;32,120;42,120</t>
+          <t>21,30894;31,5161;41,0;22,180;32,180;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,6487;31,1087;41,1121;22,210;32,210;42,209</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,9157;31,1534;41,0;22,315;32,315;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,4578;31,767;41,0;22,157;32,157;42,0</t>
         </is>
       </c>
     </row>
@@ -5965,13 +5965,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>50739</v>
+        <v>51066</v>
       </c>
       <c r="C8" t="n">
-        <v>8490</v>
+        <v>8533</v>
       </c>
       <c r="D8" t="n">
-        <v>9239</v>
+        <v>9172</v>
       </c>
       <c r="E8" t="n">
         <v>280</v>
@@ -5980,52 +5980,52 @@
         <v>280</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H8" t="n">
-        <v>50739</v>
+        <v>72086</v>
       </c>
       <c r="I8" t="n">
-        <v>8490</v>
+        <v>12044</v>
       </c>
       <c r="J8" t="n">
-        <v>9239</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25369</v>
+        <v>36043</v>
       </c>
       <c r="O8" t="n">
-        <v>4245</v>
+        <v>6022</v>
       </c>
       <c r="P8" t="n">
-        <v>4619</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>6947</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>1162</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1218</v>
       </c>
       <c r="W8" t="n">
         <v>245</v>
@@ -6034,72 +6034,72 @@
         <v>245</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>9807</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>1641</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>367</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>4903</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>820</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,50739;31,8490;41,9239;22,280;32,280;42,280</t>
+          <t>21,51066;31,8533;41,9172;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,50739;31,8490;41,9239;22,280;32,280;42,280</t>
+          <t>21,72086;31,12044;41,0;22,420;32,420;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,25369;31,4245;41,4619;22,140;32,140;42,140</t>
+          <t>21,36043;31,6022;41,0;22,210;32,210;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,6947;31,1162;41,1218;22,245;32,245;42,244</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,9807;31,1641;41,0;22,367;32,367;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,4903;31,820;41,0;22,183;32,183;42,0</t>
         </is>
       </c>
     </row>
@@ -6108,13 +6108,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>57539</v>
+        <v>58361</v>
       </c>
       <c r="C9" t="n">
-        <v>9614</v>
+        <v>9752</v>
       </c>
       <c r="D9" t="n">
-        <v>10780</v>
+        <v>10482</v>
       </c>
       <c r="E9" t="n">
         <v>315</v>
@@ -6123,52 +6123,52 @@
         <v>315</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H9" t="n">
-        <v>57539</v>
+        <v>82384</v>
       </c>
       <c r="I9" t="n">
-        <v>9614</v>
+        <v>13765</v>
       </c>
       <c r="J9" t="n">
-        <v>10780</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>28769</v>
+        <v>41192</v>
       </c>
       <c r="O9" t="n">
-        <v>4807</v>
+        <v>6882</v>
       </c>
       <c r="P9" t="n">
-        <v>5390</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>7720</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>1290</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1382</v>
       </c>
       <c r="W9" t="n">
         <v>280</v>
@@ -6177,72 +6177,72 @@
         <v>280</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>10898</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>1821</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>420</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>5449</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>910</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>210</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,57539;31,9614;41,10780;22,315;32,315;42,315</t>
+          <t>21,58361;31,9752;41,10482;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,57539;31,9614;41,10780;22,315;32,315;42,315</t>
+          <t>21,82384;31,13765;41,0;22,472;32,472;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,28769;31,4807;41,5390;22,157;32,157;42,157</t>
+          <t>21,41192;31,6882;41,0;22,235;32,235;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,7720;31,1290;41,1382;22,280;32,280;42,279</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,10898;31,1821;41,0;22,420;32,420;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,5449;31,910;41,0;22,210;32,210;42,0</t>
         </is>
       </c>
     </row>
@@ -6251,13 +6251,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>65309</v>
+        <v>65656</v>
       </c>
       <c r="C10" t="n">
-        <v>10913</v>
+        <v>10971</v>
       </c>
       <c r="D10" t="n">
-        <v>11873</v>
+        <v>11792</v>
       </c>
       <c r="E10" t="n">
         <v>335</v>
@@ -6266,52 +6266,52 @@
         <v>335</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H10" t="n">
-        <v>65309</v>
+        <v>92682</v>
       </c>
       <c r="I10" t="n">
-        <v>10913</v>
+        <v>15486</v>
       </c>
       <c r="J10" t="n">
-        <v>11873</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>502</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>32654</v>
+        <v>46341</v>
       </c>
       <c r="O10" t="n">
-        <v>5456</v>
+        <v>7742</v>
       </c>
       <c r="P10" t="n">
-        <v>5936</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>250</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>8359</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>1396</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>1515</v>
       </c>
       <c r="W10" t="n">
         <v>315</v>
@@ -6320,72 +6320,72 @@
         <v>315</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>11799</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>1971</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>472</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>5899</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>985</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>235</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,65309;31,10913;41,11873;22,335;32,335;42,335</t>
+          <t>21,65656;31,10971;41,11792;22,335;32,335;42,334</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,65309;31,10913;41,11873;22,335;32,335;42,335</t>
+          <t>21,92682;31,15486;41,0;22,502;32,502;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,32654;31,5456;41,5936;22,167;32,167;42,167</t>
+          <t>21,46341;31,7742;41,0;22,250;32,250;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,8359;31,1396;41,1515;22,315;32,315;42,314</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,11799;31,1971;41,0;22,472;32,472;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,5899;31,985;41,0;22,235;32,235;42,0</t>
         </is>
       </c>
     </row>
@@ -6409,52 +6409,52 @@
         <v>350</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H11" t="n">
-        <v>72952</v>
+        <v>102980</v>
       </c>
       <c r="I11" t="n">
-        <v>12190</v>
+        <v>17207</v>
       </c>
       <c r="J11" t="n">
-        <v>13103</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>36476</v>
+        <v>51490</v>
       </c>
       <c r="O11" t="n">
-        <v>6095</v>
+        <v>8603</v>
       </c>
       <c r="P11" t="n">
-        <v>6551</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>9012</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>1652</v>
       </c>
       <c r="W11" t="n">
         <v>350</v>
@@ -6463,72 +6463,72 @@
         <v>350</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>12721</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>2125</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>525</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>6360</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>1062</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>262</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,72952;31,12190;41,13103;22,350;32,350;42,350</t>
+          <t>21,72952;31,12190;41,13103;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,72952;31,12190;41,13103;22,350;32,350;42,350</t>
+          <t>21,102980;31,17207;41,0;22,525;32,525;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,36476;31,6095;41,6551;22,175;32,175;42,175</t>
+          <t>21,51490;31,8603;41,0;22,262;32,262;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,9012;31,1505;41,1652;22,350;32,350;42,349</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,12721;31,2125;41,0;22,525;32,525;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,6360;31,1062;41,0;22,262;32,262;42,0</t>
         </is>
       </c>
     </row>
@@ -6839,13 +6839,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5287486.5143216</v>
+        <v>5490710.9448896</v>
       </c>
       <c r="U2" t="n">
-        <v>869676.1198275</v>
+        <v>903634.487095</v>
       </c>
       <c r="V2" t="n">
-        <v>805045.5827</v>
+        <v>841480.19533623</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6886,8 +6886,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,298388;31,49859;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,149008;31,24898;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11858406.163775</v>
       </c>
@@ -6907,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>647036.1873720725</v>
       </c>
       <c r="AS2" t="n">
-        <v>15933395.84165635</v>
+        <v>16580432.02902842</v>
       </c>
     </row>
     <row r="3">
@@ -6974,13 +6982,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>660958.9808832001</v>
+        <v>684641.8472192001</v>
       </c>
       <c r="U3" t="n">
-        <v>127829.7441175</v>
+        <v>131786.251515</v>
       </c>
       <c r="V3" t="n">
-        <v>106924.7731</v>
+        <v>111259.10938119</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7021,8 +7029,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,34727;31,5802;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,17342;31,2897;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1345221.977575</v>
       </c>
@@ -7042,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>75905.2009955925</v>
       </c>
       <c r="AS3" t="n">
-        <v>2173933.66061895</v>
+        <v>2249838.861614543</v>
       </c>
     </row>
     <row r="4">
@@ -7514,13 +7530,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>55675.352</v>
+        <v>63128.301408</v>
       </c>
       <c r="U7" t="n">
-        <v>10054.25</v>
+        <v>11302.219</v>
       </c>
       <c r="V7" t="n">
-        <v>6484.078</v>
+        <v>7813.601704199999</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7561,8 +7577,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,10534;31,1763;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,5267;31,881;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119068.8255</v>
       </c>
@@ -7582,10 +7606,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>23708.69680715</v>
       </c>
       <c r="AS7" t="n">
-        <v>167450.1255</v>
+        <v>191158.82230715</v>
       </c>
     </row>
     <row r="8">
@@ -7649,13 +7673,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>55951.763464</v>
+        <v>70857.66227999999</v>
       </c>
       <c r="U8" t="n">
-        <v>10090.46125</v>
+        <v>12586.39925</v>
       </c>
       <c r="V8" t="n">
-        <v>6484.078</v>
+        <v>9143.6260162</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7696,8 +7720,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,21069;31,3527;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,10534;31,1763;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119068.8255</v>
       </c>
@@ -7717,10 +7749,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>47420.27210915</v>
       </c>
       <c r="AS8" t="n">
-        <v>167976.394589</v>
+        <v>215396.66669815</v>
       </c>
     </row>
     <row r="9">
@@ -7919,13 +7951,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>237943.5724026</v>
+        <v>245959.8298898</v>
       </c>
       <c r="U10" t="n">
-        <v>40491.19788000001</v>
+        <v>41831.65538400001</v>
       </c>
       <c r="V10" t="n">
-        <v>32366.0205</v>
+        <v>33781.13727994999</v>
       </c>
       <c r="W10" t="n">
         <v>3380</v>
@@ -7966,8 +7998,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,11379;31,1902;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,5689;31,951;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>545633.434075</v>
       </c>
@@ -7987,10 +8027,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>25402.3357495125</v>
       </c>
       <c r="AS10" t="n">
-        <v>716256.4556496</v>
+        <v>741658.7913991126</v>
       </c>
     </row>
     <row r="11">
@@ -8054,13 +8094,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>250565.5784286</v>
+        <v>290647.8658646</v>
       </c>
       <c r="U11" t="n">
-        <v>42009.41668</v>
+        <v>48711.7042</v>
       </c>
       <c r="V11" t="n">
-        <v>32366.0205</v>
+        <v>39453.38560795</v>
       </c>
       <c r="W11" t="n">
         <v>3380</v>
@@ -8101,8 +8141,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,56899;31,9513;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,28449;31,4756;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>545633.434075</v>
       </c>
@@ -8122,10 +8170,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>127080.4206947125</v>
       </c>
       <c r="AS11" t="n">
-        <v>739609.1713956001</v>
+        <v>866689.5920903124</v>
       </c>
     </row>
     <row r="12">
@@ -8189,13 +8237,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>263187.5844546</v>
+        <v>303269.8718906</v>
       </c>
       <c r="U12" t="n">
-        <v>43527.63548</v>
+        <v>50229.923</v>
       </c>
       <c r="V12" t="n">
-        <v>32366.0205</v>
+        <v>39453.38560795</v>
       </c>
       <c r="W12" t="n">
         <v>3380</v>
@@ -8236,8 +8284,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,56899;31,9513;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,28449;31,4756;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>545633.434075</v>
       </c>
@@ -8257,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>127080.4206947125</v>
       </c>
       <c r="AS12" t="n">
-        <v>762961.8871416</v>
+        <v>890042.3078363126</v>
       </c>
     </row>
     <row r="13">
@@ -8324,13 +8380,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>275809.5904806</v>
+        <v>355072.5934936</v>
       </c>
       <c r="U13" t="n">
-        <v>45045.85428</v>
+        <v>58298.60744</v>
       </c>
       <c r="V13" t="n">
-        <v>32366.0205</v>
+        <v>46409.68091545</v>
       </c>
       <c r="W13" t="n">
         <v>3380</v>
@@ -8371,8 +8427,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,112446;31,18801;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,56214;31,9398;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>545633.434075</v>
       </c>
@@ -8392,10 +8456,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>251458.0472058375</v>
       </c>
       <c r="AS13" t="n">
-        <v>786314.6028876</v>
+        <v>1037772.650093437</v>
       </c>
     </row>
     <row r="14">
@@ -8459,13 +8523,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>275809.5904806</v>
+        <v>315891.8779166</v>
       </c>
       <c r="U14" t="n">
-        <v>45045.85428</v>
+        <v>51748.1418</v>
       </c>
       <c r="V14" t="n">
-        <v>32366.0205</v>
+        <v>39453.38560795</v>
       </c>
       <c r="W14" t="n">
         <v>3380</v>
@@ -8506,8 +8570,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,56899;31,9513;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,28449;31,4756;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>545633.434075</v>
       </c>
@@ -8527,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>127080.4206947125</v>
       </c>
       <c r="AS14" t="n">
-        <v>786132.6028876</v>
+        <v>913213.0235823125</v>
       </c>
     </row>
     <row r="15">
@@ -8594,13 +8666,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>411620.098871</v>
+        <v>461882.538783</v>
       </c>
       <c r="U15" t="n">
-        <v>67665.330099</v>
+        <v>76068.93695819999</v>
       </c>
       <c r="V15" t="n">
-        <v>55651.5102</v>
+        <v>64596.31569377999</v>
       </c>
       <c r="W15" t="n">
         <v>3380</v>
@@ -8641,8 +8713,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,71525;31,11958;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,35762;31,5978;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>845311.8186699999</v>
       </c>
@@ -8662,10 +8742,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>159679.958829715</v>
       </c>
       <c r="AS15" t="n">
-        <v>1212273.0602041</v>
+        <v>1371953.019033815</v>
       </c>
     </row>
     <row r="16">
@@ -8729,13 +8809,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>411620.098871</v>
+        <v>470259.445435</v>
       </c>
       <c r="U16" t="n">
-        <v>67665.330099</v>
+        <v>77469.5381014</v>
       </c>
       <c r="V16" t="n">
-        <v>55651.5102</v>
+        <v>66088.70573458</v>
       </c>
       <c r="W16" t="n">
         <v>3380</v>
@@ -8776,8 +8856,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,83446;31,13950;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,41723;31,6975;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>845311.8186699999</v>
       </c>
@@ -8797,10 +8885,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>186302.256104395</v>
       </c>
       <c r="AS16" t="n">
-        <v>1212455.0602041</v>
+        <v>1398757.316308495</v>
       </c>
     </row>
     <row r="17">
@@ -8864,13 +8952,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1010663.2035977</v>
+        <v>1087926.66778285</v>
       </c>
       <c r="U17" t="n">
-        <v>171209.156134</v>
+        <v>184124.3603922</v>
       </c>
       <c r="V17" t="n">
-        <v>163212.2</v>
+        <v>177284.01128</v>
       </c>
       <c r="W17" t="n">
         <v>3380</v>
@@ -8911,8 +8999,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,110707;31,18504;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,55293;31,9241;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1951165.48942</v>
       </c>
@@ -8932,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>247291.28842673</v>
       </c>
       <c r="AS17" t="n">
-        <v>3145152.5309223</v>
+        <v>3392443.81934903</v>
       </c>
     </row>
     <row r="18">
@@ -8999,13 +9095,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5287486.5143216</v>
+        <v>5490710.9448896</v>
       </c>
       <c r="U18" t="n">
-        <v>869676.1198275</v>
+        <v>903634.487095</v>
       </c>
       <c r="V18" t="n">
-        <v>805045.5827</v>
+        <v>841480.19533623</v>
       </c>
       <c r="W18" t="n">
         <v>3380</v>
@@ -9046,8 +9142,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,298388;31,49859;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,149008;31,24898;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11858406.163775</v>
       </c>
@@ -9067,10 +9171,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>647036.1873720725</v>
       </c>
       <c r="AS18" t="n">
-        <v>15933395.84165635</v>
+        <v>16580432.02902842</v>
       </c>
     </row>
     <row r="19">
@@ -9134,13 +9238,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8726464.879052799</v>
+        <v>8929689.309620799</v>
       </c>
       <c r="U19" t="n">
-        <v>1437683.6988725</v>
+        <v>1471642.06614</v>
       </c>
       <c r="V19" t="n">
-        <v>1323349.6564</v>
+        <v>1359784.26903623</v>
       </c>
       <c r="W19" t="n">
         <v>3380</v>
@@ -9181,8 +9285,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,298388;31,49859;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,149008;31,24898;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19234909.23025</v>
       </c>
@@ -9202,10 +9314,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>647036.1873720725</v>
       </c>
       <c r="AS19" t="n">
-        <v>26274240.92557305</v>
+        <v>26921277.11294512</v>
       </c>
     </row>
     <row r="20">
@@ -9269,13 +9381,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>213306.847196</v>
+        <v>217680.256794</v>
       </c>
       <c r="U20" t="n">
-        <v>39341.61614500001</v>
+        <v>40145.44714650001</v>
       </c>
       <c r="V20" t="n">
-        <v>28415.0708</v>
+        <v>29014.27084072</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9316,8 +9428,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,6221;31,1144;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,3092;31,568;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>570650.9452</v>
       </c>
@@ -9337,10 +9457,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>13365.24374249</v>
       </c>
       <c r="AS20" t="n">
-        <v>653267.6556965001</v>
+        <v>666632.89943899</v>
       </c>
     </row>
     <row r="21">
@@ -9404,13 +9524,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>280234.8757736</v>
+        <v>286071.6047712</v>
       </c>
       <c r="U21" t="n">
-        <v>49326.278702</v>
+        <v>50356.86917680001</v>
       </c>
       <c r="V21" t="n">
-        <v>37969.2386</v>
+        <v>38840.49274633999</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9451,8 +9571,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,8376;31,1478;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,4177;31,737;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>680956.30391</v>
       </c>
@@ -9472,10 +9600,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>17957.514615175</v>
       </c>
       <c r="AS21" t="n">
-        <v>846518.3207674</v>
+        <v>864475.8353825749</v>
       </c>
     </row>
     <row r="22">
@@ -9539,13 +9667,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>393692.6725694</v>
+        <v>404609.2264229</v>
       </c>
       <c r="U22" t="n">
-        <v>66217.71770800001</v>
+        <v>68052.66572600001</v>
       </c>
       <c r="V22" t="n">
-        <v>54569.5135</v>
+        <v>56410.8230349</v>
       </c>
       <c r="W22" t="n">
         <v>3380</v>
@@ -9586,8 +9714,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,15826;31,2660;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,7885;31,1325;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>869359.4270650001</v>
       </c>
@@ -9607,10 +9743,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>34165.225003375</v>
       </c>
       <c r="AS22" t="n">
-        <v>1177698.6273796</v>
+        <v>1211863.852382975</v>
       </c>
     </row>
     <row r="23">
@@ -9674,13 +9810,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>455440.7102795</v>
+        <v>469787.91233525</v>
       </c>
       <c r="U23" t="n">
-        <v>77698.97077699999</v>
+        <v>80103.15197529999</v>
       </c>
       <c r="V23" t="n">
-        <v>62992.2339</v>
+        <v>65475.11120716</v>
       </c>
       <c r="W23" t="n">
         <v>3380</v>
@@ -9721,8 +9857,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,20892;31,3501;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,10430;31,1747;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>950788.444885</v>
       </c>
@@ -9742,10 +9886,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>45212.59684019</v>
       </c>
       <c r="AS23" t="n">
-        <v>1367716.9535658</v>
+        <v>1412929.55040599</v>
       </c>
     </row>
     <row r="24">
@@ -9809,13 +9953,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>522798.76963</v>
+        <v>540042.5605500001</v>
       </c>
       <c r="U24" t="n">
-        <v>94145.794733</v>
+        <v>97029.5594538</v>
       </c>
       <c r="V24" t="n">
-        <v>77532.83559999999</v>
+        <v>80590.95141323999</v>
       </c>
       <c r="W24" t="n">
         <v>3380</v>
@@ -9856,8 +10000,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,25183;31,4211;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,12591;31,2105;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1079145.60804</v>
       </c>
@@ -9877,10 +10029,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>54725.93341965001</v>
       </c>
       <c r="AS24" t="n">
-        <v>1632894.5579877</v>
+        <v>1687620.49140735</v>
       </c>
     </row>
     <row r="25">
@@ -9944,13 +10096,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>660958.9808832001</v>
+        <v>684641.8472192001</v>
       </c>
       <c r="U25" t="n">
-        <v>127829.7441175</v>
+        <v>131786.251515</v>
       </c>
       <c r="V25" t="n">
-        <v>106924.7731</v>
+        <v>111259.10938119</v>
       </c>
       <c r="W25" t="n">
         <v>3380</v>
@@ -9991,8 +10143,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,34727;31,5802;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,17342;31,2897;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1345221.977575</v>
       </c>
@@ -10012,10 +10172,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>75905.2009955925</v>
       </c>
       <c r="AS25" t="n">
-        <v>2173933.66061895</v>
+        <v>2249838.861614543</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/44.xlsx
+++ b/opm_hero_property/heroes/44.xlsx
@@ -6543,7 +6543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6739,40 +6739,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -6812,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>44</v>
@@ -6839,13 +6859,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5490710.9448896</v>
+        <v>6384007.5004736</v>
       </c>
       <c r="U2" t="n">
-        <v>903634.487095</v>
+        <v>1052902.755135</v>
       </c>
       <c r="V2" t="n">
-        <v>841480.19533623</v>
+        <v>1001926.40195223</v>
       </c>
       <c r="W2" t="n">
         <v>3380</v>
@@ -6884,7 +6904,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -6897,28 +6917,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11858406.163775</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1473633.17788135</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2954652.093102</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1897206.8</v>
+      </c>
+      <c r="AU2" t="n">
         <v>647036.1873720725</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16580432.02902842</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19426245.32213042</v>
       </c>
     </row>
     <row r="3">
@@ -6955,7 +6983,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>44</v>
@@ -6982,13 +7010,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>684641.8472192001</v>
+        <v>785241.2559872001</v>
       </c>
       <c r="U3" t="n">
-        <v>131786.251515</v>
+        <v>148595.696995</v>
       </c>
       <c r="V3" t="n">
-        <v>111259.10938119</v>
+        <v>129704.73122919</v>
       </c>
       <c r="W3" t="n">
         <v>3380</v>
@@ -7027,7 +7055,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7040,28 +7068,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1345221.977575</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>166635.43304395</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>586560.3582059999</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>215095.15</v>
+      </c>
+      <c r="AU3" t="n">
         <v>75905.2009955925</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2249838.861614543</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2572485.769820543</v>
       </c>
     </row>
     <row r="4">
@@ -7098,7 +7134,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>44</v>
@@ -7125,13 +7161,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7442.584800000001</v>
+        <v>7912.584800000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1560.8812</v>
+        <v>1638.8812</v>
       </c>
       <c r="V4" t="n">
-        <v>644.3584000000001</v>
+        <v>728.3584000000001</v>
       </c>
       <c r="W4" t="n">
         <v>600</v>
@@ -7170,25 +7206,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19194.87588</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4456.85</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7196,7 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23651.72588</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1491.2</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25142.92588</v>
       </c>
     </row>
     <row r="5">
@@ -7233,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>44</v>
@@ -7260,13 +7304,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>19884.0486</v>
+        <v>33712.0486</v>
       </c>
       <c r="U5" t="n">
-        <v>3890.9646</v>
+        <v>6200.964599999999</v>
       </c>
       <c r="V5" t="n">
-        <v>2013.479</v>
+        <v>4496.479</v>
       </c>
       <c r="W5" t="n">
         <v>777</v>
@@ -7305,25 +7349,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49250.45858999999</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11828.8</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7331,7 +7371,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61079.25859</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>44044.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105123.50859</v>
       </c>
     </row>
     <row r="6">
@@ -7368,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>44</v>
@@ -7395,13 +7447,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>55675.352</v>
+        <v>114960.352</v>
       </c>
       <c r="U6" t="n">
-        <v>10054.25</v>
+        <v>19960.25</v>
       </c>
       <c r="V6" t="n">
-        <v>6484.078</v>
+        <v>17132.078</v>
       </c>
       <c r="W6" t="n">
         <v>1300</v>
@@ -7440,33 +7492,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119068.8255</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32682</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9356.799999999999</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>167268.1255</v>
+      <c r="AT6" t="n">
+        <v>188862.4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>356130.5255</v>
       </c>
     </row>
     <row r="7">
@@ -7503,7 +7563,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>44</v>
@@ -7530,13 +7590,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>63128.301408</v>
+        <v>122413.301408</v>
       </c>
       <c r="U7" t="n">
-        <v>11302.219</v>
+        <v>21208.219</v>
       </c>
       <c r="V7" t="n">
-        <v>7813.601704199999</v>
+        <v>18461.6017042</v>
       </c>
       <c r="W7" t="n">
         <v>1300</v>
@@ -7575,7 +7635,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7588,28 +7648,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119068.8255</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32682</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>188862.4</v>
+      </c>
+      <c r="AU7" t="n">
         <v>23708.69680715</v>
       </c>
-      <c r="AS7" t="n">
-        <v>191158.82230715</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>380021.22230715</v>
       </c>
     </row>
     <row r="8">
@@ -7646,7 +7714,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>44</v>
@@ -7673,13 +7741,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>70857.66227999999</v>
+        <v>130142.66228</v>
       </c>
       <c r="U8" t="n">
-        <v>12586.39925</v>
+        <v>22492.39925</v>
       </c>
       <c r="V8" t="n">
-        <v>9143.6260162</v>
+        <v>19791.6260162</v>
       </c>
       <c r="W8" t="n">
         <v>1300</v>
@@ -7718,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -7731,28 +7799,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119068.8255</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32682</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>526.269089</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9538.799999999999</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>188862.4</v>
+      </c>
+      <c r="AU8" t="n">
         <v>47420.27210915</v>
       </c>
-      <c r="AS8" t="n">
-        <v>215396.66669815</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>404259.06669815</v>
       </c>
     </row>
     <row r="9">
@@ -7789,7 +7865,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>44</v>
@@ -7816,31 +7892,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>236681.3718</v>
+        <v>414188.515518</v>
       </c>
       <c r="U9" t="n">
-        <v>40339.376</v>
+        <v>68799.01976</v>
       </c>
       <c r="V9" t="n">
-        <v>32366.0205</v>
+        <v>61641.550705</v>
       </c>
       <c r="W9" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X9" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB9" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -7861,33 +7937,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>713946.684075</v>
+        <v>44333.08434075</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.59999999995</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1256279.66841575</v>
       </c>
     </row>
     <row r="10">
@@ -7924,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>44</v>
@@ -7951,31 +8035,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>245959.8298898</v>
+        <v>480686.3391327405</v>
       </c>
       <c r="U10" t="n">
-        <v>41831.65538400001</v>
+        <v>79543.35391318401</v>
       </c>
       <c r="V10" t="n">
-        <v>33781.13727994999</v>
+        <v>69688.8874996791</v>
       </c>
       <c r="W10" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X10" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>1650</v>
+        <v>1660</v>
       </c>
       <c r="AA10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB10" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -7996,7 +8080,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8009,28 +8093,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2309.7715746</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44333.08434075</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>25402.3357495125</v>
       </c>
-      <c r="AS10" t="n">
-        <v>741658.7913991126</v>
+      <c r="AV10" t="n">
+        <v>253541.4085170024</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1443185.584256865</v>
       </c>
     </row>
     <row r="11">
@@ -8067,7 +8163,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>44</v>
@@ -8094,31 +8190,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>290647.8658646</v>
+        <v>590353.4797550869</v>
       </c>
       <c r="U11" t="n">
-        <v>48711.7042</v>
+        <v>95381.77248656</v>
       </c>
       <c r="V11" t="n">
-        <v>39453.38560795</v>
+        <v>82589.23629758311</v>
       </c>
       <c r="W11" t="n">
-        <v>3380</v>
+        <v>3390</v>
       </c>
       <c r="X11" t="n">
-        <v>1440</v>
+        <v>1450</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="AA11" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AB11" t="n">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8139,7 +8235,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8152,28 +8248,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>25662.4873206</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44333.08434075</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU11" t="n">
         <v>127080.4206947125</v>
       </c>
-      <c r="AS11" t="n">
-        <v>866689.5920903124</v>
+      <c r="AV11" t="n">
+        <v>421894.8421923913</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1736569.818623454</v>
       </c>
     </row>
     <row r="12">
@@ -8210,7 +8318,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>44</v>
@@ -8237,31 +8345,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>303269.8718906</v>
+        <v>685614.7889363805</v>
       </c>
       <c r="U12" t="n">
-        <v>50229.923</v>
+        <v>106332.62366196</v>
       </c>
       <c r="V12" t="n">
-        <v>39453.38560795</v>
+        <v>93655.91427709391</v>
       </c>
       <c r="W12" t="n">
-        <v>3380</v>
+        <v>3400</v>
       </c>
       <c r="X12" t="n">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2250</v>
+        <v>2270</v>
       </c>
       <c r="AA12" t="n">
-        <v>2160</v>
+        <v>2180</v>
       </c>
       <c r="AB12" t="n">
-        <v>930</v>
+        <v>1010</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8282,7 +8390,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8295,28 +8403,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>49015.20306660001</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44333.08434075</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>127080.4206947125</v>
       </c>
-      <c r="AS12" t="n">
-        <v>890042.3078363126</v>
+      <c r="AV12" t="n">
+        <v>633372.7071201319</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1971400.399297195</v>
       </c>
     </row>
     <row r="13">
@@ -8353,7 +8473,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>44</v>
@@ -8380,31 +8500,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>355072.5934936</v>
+        <v>834577.3836930435</v>
       </c>
       <c r="U13" t="n">
-        <v>58298.60744</v>
+        <v>127419.0144752</v>
       </c>
       <c r="V13" t="n">
-        <v>46409.68091545</v>
+        <v>111757.8459875089</v>
       </c>
       <c r="W13" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X13" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2550</v>
+        <v>2600</v>
       </c>
       <c r="AA13" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB13" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8425,7 +8545,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8438,28 +8558,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>72367.91881259999</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>38885</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44333.08434075</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU13" t="n">
         <v>251458.0472058375</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1037772.650093437</v>
+      <c r="AV13" t="n">
+        <v>884802.1635659122</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2370560.1980001</v>
       </c>
     </row>
     <row r="14">
@@ -8496,7 +8628,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>44</v>
@@ -8523,31 +8655,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>315891.8779166</v>
+        <v>926699.2626730609</v>
       </c>
       <c r="U14" t="n">
-        <v>51748.1418</v>
+        <v>135569.18841344</v>
       </c>
       <c r="V14" t="n">
-        <v>39453.38560795</v>
+        <v>114762.6657924608</v>
       </c>
       <c r="W14" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X14" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2480</v>
+        <v>2530</v>
       </c>
       <c r="AA14" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB14" t="n">
-        <v>860</v>
+        <v>1060</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8568,7 +8700,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8581,28 +8713,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>545633.434075</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>72367.91881259999</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38703</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44151.08434075</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>442537.3</v>
+      </c>
+      <c r="AU14" t="n">
         <v>127080.4206947125</v>
       </c>
-      <c r="AS14" t="n">
-        <v>913213.0235823125</v>
+      <c r="AV14" t="n">
+        <v>1174815.583109384</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2536013.991032447</v>
       </c>
     </row>
     <row r="15">
@@ -8639,7 +8783,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>44</v>
@@ -8666,31 +8810,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>461882.538783</v>
+        <v>1467858.824140849</v>
       </c>
       <c r="U15" t="n">
-        <v>76068.93695819999</v>
+        <v>225837.348661394</v>
       </c>
       <c r="V15" t="n">
-        <v>64596.31569377999</v>
+        <v>195234.2323313846</v>
       </c>
       <c r="W15" t="n">
-        <v>3380</v>
+        <v>3480</v>
       </c>
       <c r="X15" t="n">
-        <v>1440</v>
+        <v>1540</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="AA15" t="n">
-        <v>2160</v>
+        <v>2260</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -8711,7 +8855,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -8724,28 +8868,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>845311.8186699999</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>108014.0415341</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111419.8</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128309.5363734</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>809693.5</v>
+      </c>
+      <c r="AU15" t="n">
         <v>159679.958829715</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1371953.019033815</v>
+      <c r="AV15" t="n">
+        <v>1965163.110402714</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4163699.365809929</v>
       </c>
     </row>
     <row r="16">
@@ -8782,7 +8938,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>44</v>
@@ -8809,31 +8965,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>470259.445435</v>
+        <v>1504330.657438005</v>
       </c>
       <c r="U16" t="n">
-        <v>77469.5381014</v>
+        <v>231517.3285856964</v>
       </c>
       <c r="V16" t="n">
-        <v>66088.70573458</v>
+        <v>200317.9576389562</v>
       </c>
       <c r="W16" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X16" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
       <c r="AA16" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB16" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -8854,7 +9010,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -8867,28 +9023,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>845311.8186699999</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>108014.0415341</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111601.8</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128491.5363734</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>809693.5</v>
+      </c>
+      <c r="AU16" t="n">
         <v>186302.256104395</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1398757.316308495</v>
+      <c r="AV16" t="n">
+        <v>2044635.928421414</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4269976.481103308</v>
       </c>
     </row>
     <row r="17">
@@ -8925,7 +9093,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>44</v>
@@ -8952,31 +9120,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1087926.66778285</v>
+        <v>2702594.326284143</v>
       </c>
       <c r="U17" t="n">
-        <v>184124.3603922</v>
+        <v>418052.2648989024</v>
       </c>
       <c r="V17" t="n">
-        <v>177284.01128</v>
+        <v>392320.93266816</v>
       </c>
       <c r="W17" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X17" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2970</v>
+        <v>3170</v>
       </c>
       <c r="AA17" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB17" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -8997,7 +9165,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9010,28 +9178,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1951165.48942</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>238380.2915023</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685602</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>763615.6195767999</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1293697.8</v>
+      </c>
+      <c r="AU17" t="n">
         <v>247291.28842673</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3392443.81934903</v>
+      <c r="AV17" t="n">
+        <v>3095921.07800266</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7860076.31692849</v>
       </c>
     </row>
     <row r="18">
@@ -9068,7 +9248,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>44</v>
@@ -9095,31 +9275,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5490710.9448896</v>
+        <v>9591328.630555058</v>
       </c>
       <c r="U18" t="n">
-        <v>903634.487095</v>
+        <v>1445688.88024093</v>
       </c>
       <c r="V18" t="n">
-        <v>841480.19533623</v>
+        <v>1343315.461382593</v>
       </c>
       <c r="W18" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X18" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>3530</v>
+        <v>3730</v>
       </c>
       <c r="AA18" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB18" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9140,7 +9320,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9153,28 +9333,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11858406.163775</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1473633.17788135</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2006045.6</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2954652.093102</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1897206.8</v>
+      </c>
+      <c r="AU18" t="n">
         <v>647036.1873720725</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16580432.02902842</v>
+      <c r="AV18" t="n">
+        <v>7882932.48503696</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27309177.80716738</v>
       </c>
     </row>
     <row r="19">
@@ -9211,7 +9403,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>44</v>
@@ -9238,31 +9430,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8929689.309620799</v>
+        <v>16407932.69110687</v>
       </c>
       <c r="U19" t="n">
-        <v>1471642.06614</v>
+        <v>2580701.44956496</v>
       </c>
       <c r="V19" t="n">
-        <v>1359784.26903623</v>
+        <v>2378090.660715536</v>
       </c>
       <c r="W19" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X19" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>4440</v>
+        <v>4640</v>
       </c>
       <c r="AA19" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB19" t="n">
-        <v>2820</v>
+        <v>3620</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9283,7 +9475,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9296,28 +9488,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19234909.23025</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2396023.69532305</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3467427.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6352540.2345375</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1897206.8</v>
+      </c>
+      <c r="AU19" t="n">
         <v>647036.1873720725</v>
       </c>
-      <c r="AS19" t="n">
-        <v>26921277.11294512</v>
+      <c r="AV19" t="n">
+        <v>16206095.4447368</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>47909691.99221942</v>
       </c>
     </row>
     <row r="20">
@@ -9354,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>44</v>
@@ -9381,13 +9585,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>217680.256794</v>
+        <v>224356.256794</v>
       </c>
       <c r="U20" t="n">
-        <v>40145.44714650001</v>
+        <v>41260.44714650001</v>
       </c>
       <c r="V20" t="n">
-        <v>29014.27084072</v>
+        <v>30238.27084072</v>
       </c>
       <c r="W20" t="n">
         <v>1300</v>
@@ -9426,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9439,28 +9643,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>570650.9452</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32682</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2484.0104965</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32753.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21407.5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>13365.24374249</v>
       </c>
-      <c r="AS20" t="n">
-        <v>666632.89943899</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>688040.39943899</v>
       </c>
     </row>
     <row r="21">
@@ -9497,7 +9709,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>44</v>
@@ -9524,13 +9736,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>286071.6047712</v>
+        <v>299858.5033392</v>
       </c>
       <c r="U21" t="n">
-        <v>50356.86917680001</v>
+        <v>52681.28414080001</v>
       </c>
       <c r="V21" t="n">
-        <v>38840.49274633999</v>
+        <v>41295.74513233999</v>
       </c>
       <c r="W21" t="n">
         <v>1700</v>
@@ -9569,7 +9781,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9582,28 +9794,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>680956.30391</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49023</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>32003.3168574</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65507.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72308.91303910001</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>37141.75</v>
+      </c>
+      <c r="AU21" t="n">
         <v>17957.514615175</v>
       </c>
-      <c r="AS21" t="n">
-        <v>864475.8353825749</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>908418.8984216751</v>
       </c>
     </row>
     <row r="22">
@@ -9640,7 +9860,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>44</v>
@@ -9667,31 +9887,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>404609.2264229</v>
+        <v>532506.9827152663</v>
       </c>
       <c r="U22" t="n">
-        <v>68052.66572600001</v>
+        <v>86547.70953978201</v>
       </c>
       <c r="V22" t="n">
-        <v>56410.8230349</v>
+        <v>72810.67369617159</v>
       </c>
       <c r="W22" t="n">
-        <v>3380</v>
+        <v>3430</v>
       </c>
       <c r="X22" t="n">
-        <v>1440</v>
+        <v>1490</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2250</v>
+        <v>2300</v>
       </c>
       <c r="AA22" t="n">
-        <v>2160</v>
+        <v>2210</v>
       </c>
       <c r="AB22" t="n">
-        <v>930</v>
+        <v>1130</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -9712,7 +9932,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -9725,28 +9945,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>869359.4270650001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>75259.90031459999</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95389.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>104074.74427065</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>50170.60000000001</v>
+      </c>
+      <c r="AU22" t="n">
         <v>34165.225003375</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1211863.852382975</v>
+      <c r="AV22" t="n">
+        <v>291556.7556391238</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1562276.552292749</v>
       </c>
     </row>
     <row r="23">
@@ -9783,7 +10015,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>44</v>
@@ -9810,31 +10042,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>469787.91233525</v>
+        <v>688814.6380716164</v>
       </c>
       <c r="U23" t="n">
-        <v>80103.15197529999</v>
+        <v>115303.3080763311</v>
       </c>
       <c r="V23" t="n">
-        <v>65475.11120716</v>
+        <v>94256.23299673789</v>
       </c>
       <c r="W23" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X23" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2690</v>
+        <v>2890</v>
       </c>
       <c r="AA23" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB23" t="n">
-        <v>1070</v>
+        <v>1870</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -9855,7 +10087,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -9868,28 +10100,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>950788.444885</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>120534.6586808</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>151723</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>170722.2688977</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>91794.8</v>
+      </c>
+      <c r="AU23" t="n">
         <v>45212.59684019</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1412929.55040599</v>
+      <c r="AV23" t="n">
+        <v>519005.1842258539</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2042728.803529544</v>
       </c>
     </row>
     <row r="24">
@@ -9926,7 +10170,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>44</v>
@@ -9953,31 +10197,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>540042.5605500001</v>
+        <v>863830.1877139</v>
       </c>
       <c r="U24" t="n">
-        <v>97029.5594538</v>
+        <v>149865.1830007446</v>
       </c>
       <c r="V24" t="n">
-        <v>80590.95141323999</v>
+        <v>125022.9710624549</v>
       </c>
       <c r="W24" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X24" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2970</v>
+        <v>3170</v>
       </c>
       <c r="AA24" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB24" t="n">
-        <v>1350</v>
+        <v>2150</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -9998,7 +10242,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10011,28 +10255,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1079145.60804</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>135450.4999477</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>260818.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>303951.0243216</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>146668.65</v>
+      </c>
+      <c r="AU24" t="n">
         <v>54725.93341965001</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1687620.49140735</v>
+      <c r="AV24" t="n">
+        <v>756436.0682992036</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2633858.034028154</v>
       </c>
     </row>
     <row r="25">
@@ -10069,7 +10325,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>44</v>
@@ -10096,31 +10352,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>684641.8472192001</v>
+        <v>1472086.220908954</v>
       </c>
       <c r="U25" t="n">
-        <v>131786.251515</v>
+        <v>256872.577309695</v>
       </c>
       <c r="V25" t="n">
-        <v>111259.10938119</v>
+        <v>219821.9031637212</v>
       </c>
       <c r="W25" t="n">
-        <v>3380</v>
+        <v>3580</v>
       </c>
       <c r="X25" t="n">
-        <v>1440</v>
+        <v>1640</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>3530</v>
+        <v>3730</v>
       </c>
       <c r="AA25" t="n">
-        <v>2160</v>
+        <v>2360</v>
       </c>
       <c r="AB25" t="n">
-        <v>1910</v>
+        <v>2710</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10141,7 +10397,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10154,28 +10410,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1345221.977575</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114307.2</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>166635.43304395</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>479008.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>586560.3582059999</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>215095.15</v>
+      </c>
+      <c r="AU25" t="n">
         <v>75905.2009955925</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2249838.861614543</v>
+      <c r="AV25" t="n">
+        <v>1954529.177716704</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4527014.947537246</v>
       </c>
     </row>
   </sheetData>
